--- a/Data/collapsed database manual cases/queretaro_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/queretaro_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/queretaro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12314A89-7E5B-774C-B391-9BD224AC1DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B070FFA-215D-6741-A5FE-171A1721C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$127</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="366">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1073,6 +1086,54 @@
   </si>
   <si>
     <t>https://codiceinformativo.com/codice_politico/pancho-dominguez-de-goan-al-cen-del-pan-y-de-alli-a-la-presidencia/</t>
+  </si>
+  <si>
+    <t>PAN_PRD</t>
+  </si>
+  <si>
+    <t>LEON ENRIQUE BOLA√ëO MENDOZA</t>
+  </si>
+  <si>
+    <t>MORENA_PT_PES</t>
+  </si>
+  <si>
+    <t>ELVIA MONTES TREJO</t>
+  </si>
+  <si>
+    <t>PAN_PRD_QI</t>
+  </si>
+  <si>
+    <t>MAGDA GUADALUPE PEREZ MONTES</t>
+  </si>
+  <si>
+    <t>LETICIA SERVIN MOYA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>MARINA PONCE CAMACHO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS LINARES AGUILAR</t>
+  </si>
+  <si>
+    <t>LUIS BERNARDO NAVA GUERRERO</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leon.bolano/photos</t>
+  </si>
+  <si>
+    <t>https://www.periodicodebatepolitico.com.mx/la-alcaldesa-de-morena-elvia-montes-trejo-busca-aplicar-nuevos-impuestos-en-2021/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LetyServinOficial/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LuisBNava/</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7436,6 +7497,137 @@
         <v>41</v>
       </c>
     </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>22004</v>
+      </c>
+      <c r="B128">
+        <v>2021</v>
+      </c>
+      <c r="E128" t="s">
+        <v>350</v>
+      </c>
+      <c r="F128" t="s">
+        <v>351</v>
+      </c>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>22007</v>
+      </c>
+      <c r="B129">
+        <v>2021</v>
+      </c>
+      <c r="E129" t="s">
+        <v>352</v>
+      </c>
+      <c r="F129" t="s">
+        <v>353</v>
+      </c>
+      <c r="H129" t="s">
+        <v>357</v>
+      </c>
+      <c r="I129" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>22007</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+      <c r="E130" t="s">
+        <v>354</v>
+      </c>
+      <c r="F130" t="s">
+        <v>355</v>
+      </c>
+      <c r="H130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>22008</v>
+      </c>
+      <c r="B131">
+        <v>2021</v>
+      </c>
+      <c r="E131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" t="s">
+        <v>356</v>
+      </c>
+      <c r="H131" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>22010</v>
+      </c>
+      <c r="B132">
+        <v>2021</v>
+      </c>
+      <c r="E132" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" t="s">
+        <v>359</v>
+      </c>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>22013</v>
+      </c>
+      <c r="B133">
+        <v>2021</v>
+      </c>
+      <c r="E133" t="s">
+        <v>324</v>
+      </c>
+      <c r="F133" t="s">
+        <v>360</v>
+      </c>
+      <c r="H133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>22014</v>
+      </c>
+      <c r="B134">
+        <v>2021</v>
+      </c>
+      <c r="E134" t="s">
+        <v>358</v>
+      </c>
+      <c r="F134" t="s">
+        <v>361</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S127" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
